--- a/data/case1/5/P2_5.xlsx
+++ b/data/case1/5/P2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.26492962486067029</v>
+        <v>0.23420996532603056</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995615149828</v>
+        <v>-0.0099999991878298999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995565630542</v>
+        <v>-0.0089999991817304448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061994725738745871</v>
+        <v>0.061992493638598489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995683233109</v>
+        <v>-0.0059999991965984378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.057087916322281274</v>
+        <v>-0.0059999991725518953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999465468932</v>
+        <v>-0.019999999034221005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.073769069117390451</v>
+        <v>-0.019999999028780024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995523396521</v>
+        <v>0.024337355267431526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995545183538</v>
+        <v>-0.061013195588749625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995640182533</v>
+        <v>-0.0044999991660361616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.042534928202776268</v>
+        <v>0.063773218056798253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995538335682</v>
+        <v>-0.0059999991384822593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999515014181</v>
+        <v>-0.011999999076333978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.005999999553957025</v>
+        <v>-0.00599999913189464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.027463598314629856</v>
+        <v>-0.0059999991292984944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995528636774</v>
+        <v>-0.0059999991257440044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999533026326</v>
+        <v>-0.0089999990959492848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995675964506</v>
+        <v>-0.0089999991972544713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995634642005</v>
+        <v>-0.0089999991897151688</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.008999999562794514</v>
+        <v>-0.0089999991886777764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995622749296</v>
+        <v>-0.0089999991880418406</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.057613299664741824</v>
+        <v>-0.0089999991745219887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999330043281</v>
+        <v>-0.041999998839770569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999326129078</v>
+        <v>-0.041999998833591512</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995552502128</v>
+        <v>-0.0059999991705517175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995524857574</v>
+        <v>-0.0059999991676527031</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995423041241</v>
+        <v>-0.0059999991563799426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999496531188</v>
+        <v>-0.0119999990906976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999441376204</v>
+        <v>-0.019999999009992386</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999468457759</v>
+        <v>0.047810648378444398</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999428952698</v>
+        <v>-0.057279068981669568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995251764915</v>
+        <v>-0.0059999991399246611</v>
       </c>
     </row>
   </sheetData>
